--- a/16A-Red-BOM-2016-03-02.xlsx
+++ b/16A-Red-BOM-2016-03-02.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="350">
   <si>
     <t>Operating Systems</t>
   </si>
@@ -1115,9 +1115,6 @@
     <t>OCm14102-U-LP</t>
   </si>
   <si>
-    <t>O1CV772</t>
-  </si>
-  <si>
     <t>Skybird P2 Plus (2x10)</t>
   </si>
   <si>
@@ -1131,6 +1128,18 @@
   </si>
   <si>
     <t>Added Silver P2 Plus, SkyBird P2 Plus (2x10), and SkyBird P2 Plus (4x10) to Adapter Models</t>
+  </si>
+  <si>
+    <t>OCm14102B-U-LP</t>
+  </si>
+  <si>
+    <t>OCm14104B-U-LP</t>
+  </si>
+  <si>
+    <t>01CV772</t>
+  </si>
+  <si>
+    <t>Fixed Silver P2 Plus part number and SkyBird P2 Plus model names</t>
   </si>
 </sst>
 </file>
@@ -1369,9 +1378,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="242">
+  <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1881,6 +1892,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1896,57 +1956,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="242">
+  <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2067,6 +2078,7 @@
     <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2187,6 +2199,7 @@
     <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -2513,38 +2526,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="114"/>
+      <c r="B2" s="117"/>
     </row>
     <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="113" t="s">
+      <c r="H4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2587,20 +2600,20 @@
         <v>32</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="112"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="115"/>
       <c r="N6" s="22"/>
       <c r="O6" s="68"/>
       <c r="P6" s="23"/>
@@ -2747,14 +2760,14 @@
         <v>5</v>
       </c>
       <c r="G11" s="37"/>
-      <c r="H11" s="118" t="s">
+      <c r="H11" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
       <c r="O11" s="68"/>
       <c r="P11" s="30"/>
     </row>
@@ -2773,7 +2786,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="28"/>
-      <c r="H12" s="119" t="s">
+      <c r="H12" s="111" t="s">
         <v>311</v>
       </c>
       <c r="I12" s="91" t="s">
@@ -2809,7 +2822,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="28"/>
-      <c r="H13" s="120"/>
+      <c r="H13" s="112"/>
       <c r="I13" s="82" t="s">
         <v>155</v>
       </c>
@@ -2924,14 +2937,14 @@
       <c r="E17" s="97"/>
       <c r="F17" s="98"/>
       <c r="G17" s="68"/>
-      <c r="H17" s="118" t="s">
+      <c r="H17" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
       <c r="O17" s="68"/>
       <c r="P17" s="30"/>
     </row>
@@ -2940,13 +2953,13 @@
         <v>298</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="107" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="68"/>
-      <c r="H18" s="119" t="s">
+      <c r="H18" s="111" t="s">
         <v>311</v>
       </c>
       <c r="I18" s="82" t="s">
@@ -2982,7 +2995,7 @@
         <v>50</v>
       </c>
       <c r="G19" s="68"/>
-      <c r="H19" s="120"/>
+      <c r="H19" s="112"/>
       <c r="I19" s="82" t="s">
         <v>322</v>
       </c>
@@ -3031,14 +3044,14 @@
       <c r="F21" s="72">
         <v>52</v>
       </c>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="112"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="115"/>
       <c r="O21" s="68"/>
     </row>
     <row r="22" spans="2:16" ht="45" x14ac:dyDescent="0.2">
@@ -3055,7 +3068,7 @@
       <c r="F22" s="73">
         <v>53</v>
       </c>
-      <c r="H22" s="101" t="s">
+      <c r="H22" s="118" t="s">
         <v>311</v>
       </c>
       <c r="I22" s="82" t="s">
@@ -3080,7 +3093,7 @@
         <v>303</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="H23" s="102"/>
+      <c r="H23" s="119"/>
       <c r="I23" s="82" t="s">
         <v>160</v>
       </c>
@@ -3139,14 +3152,14 @@
       <c r="D26" s="43"/>
       <c r="E26" s="7"/>
       <c r="F26" s="45"/>
-      <c r="H26" s="110" t="s">
+      <c r="H26" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="112"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
       <c r="O26" s="68"/>
     </row>
     <row r="27" spans="2:16" ht="30" x14ac:dyDescent="0.2">
@@ -3155,7 +3168,7 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="45"/>
-      <c r="H27" s="103" t="s">
+      <c r="H27" s="120" t="s">
         <v>249</v>
       </c>
       <c r="I27" s="82" t="s">
@@ -3182,7 +3195,7 @@
       <c r="D28" s="63"/>
       <c r="E28" s="62"/>
       <c r="F28" s="64"/>
-      <c r="H28" s="104"/>
+      <c r="H28" s="121"/>
       <c r="I28" s="82" t="s">
         <v>169</v>
       </c>
@@ -3204,7 +3217,7 @@
       <c r="D29" s="63"/>
       <c r="E29" s="62"/>
       <c r="F29" s="64"/>
-      <c r="H29" s="105"/>
+      <c r="H29" s="122"/>
       <c r="I29" s="83" t="s">
         <v>44</v>
       </c>
@@ -3226,7 +3239,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="7"/>
       <c r="F30" s="45"/>
-      <c r="H30" s="106" t="s">
+      <c r="H30" s="102" t="s">
         <v>311</v>
       </c>
       <c r="I30" s="83" t="s">
@@ -3249,7 +3262,7 @@
       <c r="D31" s="43"/>
       <c r="E31" s="7"/>
       <c r="F31" s="45"/>
-      <c r="H31" s="107"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="83" t="s">
         <v>270</v>
       </c>
@@ -3290,7 +3303,7 @@
       </c>
     </row>
     <row r="33" spans="4:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="H33" s="106" t="s">
+      <c r="H33" s="102" t="s">
         <v>307</v>
       </c>
       <c r="I33" s="83" t="s">
@@ -3314,7 +3327,7 @@
       <c r="D34" s="43"/>
       <c r="E34" s="7"/>
       <c r="F34" s="45"/>
-      <c r="H34" s="107"/>
+      <c r="H34" s="103"/>
       <c r="I34" s="83" t="s">
         <v>339</v>
       </c>
@@ -3322,7 +3335,7 @@
         <v>340</v>
       </c>
       <c r="K34" s="82" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L34" s="82" t="s">
         <v>271</v>
@@ -3358,10 +3371,10 @@
       <c r="D36" s="47"/>
       <c r="E36" s="6"/>
       <c r="F36" s="48"/>
-      <c r="H36" s="108" t="s">
+      <c r="H36" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="I36" s="121" t="s">
+      <c r="I36" s="101" t="s">
         <v>232</v>
       </c>
       <c r="J36" s="81" t="s">
@@ -3381,15 +3394,15 @@
       <c r="D37" s="47"/>
       <c r="E37" s="7"/>
       <c r="F37" s="48"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="121" t="s">
+      <c r="H37" s="105"/>
+      <c r="I37" s="101" t="s">
+        <v>341</v>
+      </c>
+      <c r="J37" s="81" t="s">
+        <v>346</v>
+      </c>
+      <c r="K37" s="81" t="s">
         <v>342</v>
-      </c>
-      <c r="J37" s="81" t="s">
-        <v>234</v>
-      </c>
-      <c r="K37" s="81" t="s">
-        <v>343</v>
       </c>
       <c r="L37" s="85" t="s">
         <v>238</v>
@@ -3399,8 +3412,8 @@
       </c>
     </row>
     <row r="38" spans="4:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="H38" s="122"/>
-      <c r="I38" s="121" t="s">
+      <c r="H38" s="105"/>
+      <c r="I38" s="101" t="s">
         <v>233</v>
       </c>
       <c r="J38" s="81" t="s">
@@ -3417,15 +3430,15 @@
       </c>
     </row>
     <row r="39" spans="4:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="H39" s="109"/>
-      <c r="I39" s="121" t="s">
-        <v>345</v>
+      <c r="H39" s="106"/>
+      <c r="I39" s="101" t="s">
+        <v>344</v>
       </c>
       <c r="J39" s="81" t="s">
-        <v>235</v>
+        <v>347</v>
       </c>
       <c r="K39" s="81" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L39" s="85" t="s">
         <v>239</v>
@@ -3546,6 +3559,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="H36:H39"/>
     <mergeCell ref="D18:F18"/>
@@ -3554,15 +3573,9 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="H17:M17"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="H27:H29"/>
     <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H6:M6"/>
     <mergeCell ref="H26:M26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3576,7 +3589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3604,69 +3617,71 @@
       </c>
       <c r="B2" s="93"/>
       <c r="C2" s="99" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="99" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="4" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="67">
         <v>42348</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="99" t="s">
+      <c r="B5" s="93"/>
+      <c r="C5" s="99" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
     <row r="6" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="67">
         <v>42347</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="99" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
       <c r="B7" s="93"/>
       <c r="C7" s="99" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="67"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="99" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67">
+    <row r="9" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="67">
         <v>42340</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="65" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="65" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12"/>
@@ -3706,30 +3721,35 @@
       <c r="B19" s="1"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
